--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/37622020/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/37622020/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9921200275421143</v>
+        <v>0.9846663475036621</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9905298352241516</v>
+        <v>0.9817214012145996</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9911547899246216</v>
+        <v>0.9831962585449219</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9167484641075134</v>
+        <v>0.8621832132339478</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9914181232452393</v>
+        <v>0.9833852052688599</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9919270277023315</v>
+        <v>0.9842942357063293</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9928499460220337</v>
+        <v>0.9859529733657837</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9919439554214478</v>
+        <v>0.9843094348907471</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9928499460220337</v>
+        <v>0.9859529733657837</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9929684996604919</v>
+        <v>0.9861569404602051</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.993287980556488</v>
+        <v>0.9867187142372131</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9779806137084961</v>
+        <v>0.966654360294342</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9925347566604614</v>
+        <v>0.985383152961731</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9919041991233826</v>
+        <v>0.984457790851593</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9913280606269836</v>
+        <v>0.9831833839416504</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9914422631263733</v>
+        <v>0.9834101796150208</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5710890889167786</v>
+        <v>0.4147537052631378</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.992267906665802</v>
+        <v>0.9848721027374268</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9932390451431274</v>
+        <v>0.986634373664856</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9918644428253174</v>
+        <v>0.9841565489768982</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9925183057785034</v>
+        <v>0.9853148460388184</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9922898411750793</v>
+        <v>0.984904408454895</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9925783276557922</v>
+        <v>0.9854519963264465</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9291632175445557</v>
+        <v>0.8774890303611755</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.442470908164978</v>
+        <v>0.3217241764068604</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9922457337379456</v>
+        <v>0.9848319888114929</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9905298352241516</v>
+        <v>0.9817214012145996</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.991979718208313</v>
+        <v>0.9843771457672119</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9914553761482239</v>
+        <v>0.9834082126617432</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9905260801315308</v>
+        <v>0.9817257523536682</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9920209050178528</v>
+        <v>0.9844693541526794</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9696494340896606</v>
+        <v>0.9558320045471191</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.978727400302887</v>
+        <v>0.9676411747932434</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9744424819946289</v>
+        <v>0.9616072773933411</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9919622540473938</v>
+        <v>0.9843754172325134</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9762919545173645</v>
+        <v>0.9642331004142761</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9929106831550598</v>
+        <v>0.9860885739326477</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9191403388977051</v>
+        <v>0.90397709608078</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9702980518341064</v>
+        <v>0.9573156833648682</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.992917537689209</v>
+        <v>0.9860979318618774</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9727132320404053</v>
+        <v>0.9586842656135559</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9667730927467346</v>
+        <v>0.9521700739860535</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.970512330532074</v>
+        <v>0.9562779664993286</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9720950722694397</v>
+        <v>0.9595161080360413</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9679655432701111</v>
+        <v>0.9540888667106628</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.672265350818634</v>
+        <v>0.5984280109405518</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9668505191802979</v>
+        <v>0.9522011280059814</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9933127760887146</v>
+        <v>0.986756443977356</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9600858688354492</v>
+        <v>0.9429305195808411</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9434016942977905</v>
+        <v>0.9238647818565369</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9904952049255371</v>
+        <v>0.9816901087760925</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9600858688354492</v>
+        <v>0.9429305195808411</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9598820805549622</v>
+        <v>0.9424459934234619</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9919115900993347</v>
+        <v>0.984226405620575</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9930083751678467</v>
+        <v>0.9862062335014343</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9932367205619812</v>
+        <v>0.9866482615470886</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9751816391944885</v>
+        <v>0.9624373912811279</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9933068156242371</v>
+        <v>0.9867624640464783</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9927365779876709</v>
+        <v>0.985801637172699</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9929130673408508</v>
+        <v>0.9860143661499023</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9927346706390381</v>
+        <v>0.985716700553894</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.971486508846283</v>
+        <v>0.957491397857666</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7674337029457092</v>
+        <v>0.7047061324119568</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9749730825424194</v>
+        <v>0.962454617023468</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9749730825424194</v>
+        <v>0.962454617023468</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9713852405548096</v>
+        <v>0.9574047327041626</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9749730825424194</v>
+        <v>0.962454617023468</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9515900611877441</v>
+        <v>0.904056191444397</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9919223785400391</v>
+        <v>0.9842488169670105</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9729356169700623</v>
+        <v>0.9590423107147217</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9888793230056763</v>
+        <v>0.9788001775741577</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9767621159553528</v>
+        <v>0.9648417234420776</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9925727844238281</v>
+        <v>0.9854754209518433</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9913944602012634</v>
+        <v>0.9833213090896606</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9767621159553528</v>
+        <v>0.9648417234420776</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9904995560646057</v>
+        <v>0.9816721081733704</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9767621159553528</v>
+        <v>0.9648417234420776</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9923112392425537</v>
+        <v>0.984980046749115</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9767121076583862</v>
+        <v>0.9646838307380676</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9905385971069336</v>
+        <v>0.9817760586738586</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9767121076583862</v>
+        <v>0.9646838307380676</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9905027151107788</v>
+        <v>0.9816794395446777</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9905027151107788</v>
+        <v>0.9816794395446777</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9933566451072693</v>
+        <v>0.986871600151062</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9778165221214294</v>
+        <v>0.9660984873771667</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9922298789024353</v>
+        <v>0.9848704934120178</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9768980741500854</v>
+        <v>0.96491938829422</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9905097484588623</v>
+        <v>0.9817111492156982</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9925212264060974</v>
+        <v>0.9853298664093018</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9925166964530945</v>
+        <v>0.985310435295105</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9925239682197571</v>
+        <v>0.9853373169898987</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9925131797790527</v>
+        <v>0.9853052496910095</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9925093650817871</v>
+        <v>0.985302209854126</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9925053119659424</v>
+        <v>0.98530513048172</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9931899905204773</v>
+        <v>0.9865650534629822</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7941920161247253</v>
+        <v>0.6142391562461853</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9931881427764893</v>
+        <v>0.9865391850471497</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9543287754058838</v>
+        <v>0.9377766251564026</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9919440746307373</v>
+        <v>0.9842809438705444</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9922510981559753</v>
+        <v>0.9848240613937378</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8290461897850037</v>
+        <v>0.7588906288146973</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.965628981590271</v>
+        <v>0.9502573013305664</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9914022088050842</v>
+        <v>0.9833177328109741</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9523361325263977</v>
+        <v>0.905985414981842</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9919312596321106</v>
+        <v>0.9842795133590698</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9676850438117981</v>
+        <v>0.9527505040168762</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.933355987071991</v>
+        <v>0.8839579224586487</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.992321789264679</v>
+        <v>0.9850156307220459</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9905298352241516</v>
+        <v>0.9817214012145996</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9697345495223999</v>
+        <v>0.9560112953186035</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9670255184173584</v>
+        <v>0.9523700475692749</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9786117672920227</v>
+        <v>0.9676015377044678</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9927725195884705</v>
+        <v>0.9857993125915527</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9778720736503601</v>
+        <v>0.9665359258651733</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9903912544250488</v>
+        <v>0.9817459583282471</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9913190007209778</v>
+        <v>0.9831878542900085</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8104511499404907</v>
+        <v>0.7447940707206726</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9164232015609741</v>
+        <v>0.9012028574943542</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9905298352241516</v>
+        <v>0.9817214012145996</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9518631100654602</v>
+        <v>0.9041840434074402</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9931955337524414</v>
+        <v>0.9865354895591736</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9518631100654602</v>
+        <v>0.9041840434074402</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9931955337524414</v>
+        <v>0.9865354895591736</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9518631100654602</v>
+        <v>0.9041840434074402</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.993156373500824</v>
+        <v>0.9864794611930847</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7684611678123474</v>
+        <v>0.7079452276229858</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9905298352241516</v>
+        <v>0.9817214012145996</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.98853600025177</v>
+        <v>0.9787824749946594</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7650622725486755</v>
+        <v>0.6522086262702942</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9914101958274841</v>
+        <v>0.9833626747131348</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5257731676101685</v>
+        <v>0.413002222776413</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9913311004638672</v>
+        <v>0.9832403063774109</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9925939440727234</v>
+        <v>0.9855127930641174</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9919486045837402</v>
+        <v>0.9843423962593079</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9887326955795288</v>
+        <v>0.9791027903556824</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9914202690124512</v>
+        <v>0.9833992719650269</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9913733601570129</v>
+        <v>0.9833158850669861</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9914286732673645</v>
+        <v>0.9833922386169434</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9906150102615356</v>
+        <v>0.9819225072860718</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9925987720489502</v>
+        <v>0.9856131672859192</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9905298352241516</v>
+        <v>0.9817214012145996</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9746060967445374</v>
+        <v>0.9618026614189148</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.992716908454895</v>
+        <v>0.9856919646263123</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9746060967445374</v>
+        <v>0.9618026614189148</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9904914498329163</v>
+        <v>0.9816651940345764</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9515900611877441</v>
+        <v>0.904056191444397</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9922686219215393</v>
+        <v>0.9848688840866089</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9756613969802856</v>
+        <v>0.9634745717048645</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8973883986473083</v>
+        <v>0.7916086316108704</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9905298352241516</v>
+        <v>0.9817214012145996</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8158642053604126</v>
+        <v>0.7299091815948486</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9930577278137207</v>
+        <v>0.9863229990005493</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9337814450263977</v>
+        <v>0.8846776485443115</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9925646781921387</v>
+        <v>0.985454797744751</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9343281984329224</v>
+        <v>0.8852934837341309</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9927389025688171</v>
+        <v>0.9857651591300964</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9344835877418518</v>
+        <v>0.8856812119483948</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9928419589996338</v>
+        <v>0.98589688539505</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9679325819015503</v>
+        <v>0.9538885951042175</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9922378659248352</v>
+        <v>0.98487389087677</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9917826652526855</v>
+        <v>0.9840070605278015</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9914361834526062</v>
+        <v>0.9834262132644653</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9742226004600525</v>
+        <v>0.9615052342414856</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.993159294128418</v>
+        <v>0.986507773399353</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9665346145629883</v>
+        <v>0.9517306089401245</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9639074802398682</v>
+        <v>0.9483127593994141</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9781754016876221</v>
+        <v>0.9669046998023987</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9905298352241516</v>
+        <v>0.9817214012145996</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9639074802398682</v>
+        <v>0.9483127593994141</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9770609736442566</v>
+        <v>0.9653060436248779</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9905298352241516</v>
+        <v>0.9817214012145996</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9914134740829468</v>
+        <v>0.9833555817604065</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9914074540138245</v>
+        <v>0.9833787083625793</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9914134740829468</v>
+        <v>0.9833555817604065</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9914134740829468</v>
+        <v>0.9833555817604065</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9914074540138245</v>
+        <v>0.9833787083625793</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9922904372215271</v>
+        <v>0.984955370426178</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9889835715293884</v>
+        <v>0.9789804220199585</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9913943409919739</v>
+        <v>0.9833207726478577</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9923563003540039</v>
+        <v>0.9850430488586426</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9918985366821289</v>
+        <v>0.9842422604560852</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9539465308189392</v>
+        <v>0.9066376686096191</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9927869439125061</v>
+        <v>0.9858298897743225</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9927896857261658</v>
+        <v>0.9858182072639465</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9928930401802063</v>
+        <v>0.9859954714775085</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9928528666496277</v>
+        <v>0.9859076142311096</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.992280900478363</v>
+        <v>0.9848830103874207</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9924401044845581</v>
+        <v>0.9851851463317871</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.99244225025177</v>
+        <v>0.9851861596107483</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7719736695289612</v>
+        <v>0.6018399000167847</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9919642210006714</v>
+        <v>0.9843304753303528</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9914562106132507</v>
+        <v>0.9834206700325012</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9473499059677124</v>
+        <v>0.8989015817642212</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9705467224121094</v>
+        <v>0.9576316475868225</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9928060173988342</v>
+        <v>0.9858888983726501</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9928913116455078</v>
+        <v>0.9860069751739502</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9930136799812317</v>
+        <v>0.9862191081047058</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9922548532485962</v>
+        <v>0.9848160743713379</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.933281421661377</v>
+        <v>0.9038904905319214</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9922441840171814</v>
+        <v>0.9848536252975464</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9923593401908875</v>
+        <v>0.9850896596908569</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.991459846496582</v>
+        <v>0.9834378957748413</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9640145897865295</v>
+        <v>0.9485008716583252</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9930830001831055</v>
+        <v>0.9863417744636536</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9913609623908997</v>
+        <v>0.9832219481468201</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7956701517105103</v>
+        <v>0.6234005689620972</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9889448285102844</v>
+        <v>0.9789463877677917</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5124596357345581</v>
+        <v>0.3677058815956116</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9913677573204041</v>
+        <v>0.9832565188407898</v>
       </c>
     </row>
   </sheetData>
